--- a/template.xlsx
+++ b/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keita\OneDrive\デスクトップ\ippo\koshin\kcr_Rehab-Plan-Generator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yusei\Desktop\Rehab-Plan-Generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45640980-BA07-4BA0-97F6-75D233F7E4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81403134-4E28-4B76-A10D-4F3658259969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="様式23_1" sheetId="4" r:id="rId1"/>
@@ -2844,7 +2844,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
@@ -2852,7 +2852,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="14"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -4220,9 +4220,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AW93"/>
   <sheetViews>
-    <sheetView showRuler="0" view="pageBreakPreview" topLeftCell="A68" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79:Y85"/>
-    </sheetView>
+    <sheetView tabSelected="1" showRuler="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -9730,8 +9728,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AT68"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" view="pageBreakPreview" topLeftCell="A48" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Z52" activeCellId="4" sqref="Z2:AT12 Z13:AT49 Z65:AT68 Z55:AT64 Z52:AT54"/>
+    <sheetView showRuler="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
